--- a/centers_cores/ic_performance_data_template.xlsx
+++ b/centers_cores/ic_performance_data_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="13275" windowHeight="5145" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="13275" windowHeight="5145" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -144,10 +144,10 @@
     <t>Current Status/Other comments</t>
   </si>
   <si>
-    <t>Pending Proposals Calendar Year 2012</t>
-  </si>
-  <si>
-    <t>Planned Proposals  2013</t>
+    <t>Pending Proposals Calendar Year 20XX</t>
+  </si>
+  <si>
+    <t>Planned Proposals  20XX</t>
   </si>
 </sst>
 </file>
@@ -243,7 +243,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9820445" cy="5101397"/>
+    <xdr:ext cx="9561720" cy="5602303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -252,12 +252,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1422400" y="774700"/>
-          <a:ext cx="9820445" cy="5101397"/>
+          <a:ext cx="9561720" cy="5602303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -287,7 +291,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>Performance Evaluation and Planning  [2012– 2013]</a:t>
+            <a:t>Performance Evaluation and Planning  [2014]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -297,7 +301,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t> established for calendar year 2012 in narrative or bullett form:  one page limit</a:t>
+            <a:t> established for calendar year 2014 in narrative or bullett form:  one page limit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -306,7 +310,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>2.	Accomplishments for calendar year 2012 in narrative or bullet form:  one page limit</a:t>
+            <a:t>2.	Accomplishments for calendar year 2014 in narrative or bullet form:  one page limit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -315,7 +319,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>3.	 Goals and objectives for calendar 2013 in narrative or bullet form:   one page limit</a:t>
+            <a:t>3.	 Goals and objectives for calendar 2015 in narrative or bullet form:   one page limit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -386,6 +390,20 @@
             <a:rPr lang="en-US" sz="1600"/>
             <a:t>Include a PMC ID number,  if available.   (no page limit)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>(note #1,2,3 and 8 should be submitted in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> a single Word document)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1600"/>
@@ -687,7 +705,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/centers_cores/ic_performance_data_template.xlsx
+++ b/centers_cores/ic_performance_data_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="13275" windowHeight="5145" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11592"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -230,6 +230,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -291,7 +294,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>Performance Evaluation and Planning  [2014]</a:t>
+            <a:t>Performance Evaluation and Planning  [Year]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -301,7 +304,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0"/>
-            <a:t> established for calendar year 2014 in narrative or bullett form:  one page limit</a:t>
+            <a:t> established for calendar year 20XX in narrative or bullet form:  one page limit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -310,7 +313,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>2.	Accomplishments for calendar year 2014 in narrative or bullet form:  one page limit</a:t>
+            <a:t>2.	Accomplishments for calendar year 20XX in narrative or bullet form:  one page limit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -319,7 +322,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
-            <a:t>3.	 Goals and objectives for calendar 2015 in narrative or bullet form:   one page limit</a:t>
+            <a:t>3.	 Goals and objectives for upcoming calendar year</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> (20XX) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>in narrative or bullet form:   one page limit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -704,11 +715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -722,7 +733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M4"/>
@@ -731,15 +742,15 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -751,7 +762,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -763,7 +774,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
@@ -836,16 +847,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -858,7 +869,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
@@ -871,7 +882,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="H3" s="8" t="s">
         <v>14</v>
       </c>
@@ -932,16 +943,16 @@
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -954,7 +965,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
@@ -967,7 +978,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
@@ -1024,26 +1035,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="7" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="6" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1070,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1086,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
